--- a/Working_time.xlsx
+++ b/Working_time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\高達工作室\Time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472F4DEA-82AE-4C42-8550-7280F4DA8D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BDE9B-41C2-4AD6-BA20-EE96B80C61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="9" xr2:uid="{D33BB735-785D-414E-9181-E53757CEF9BA}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{D33BB735-785D-414E-9181-E53757CEF9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="比例" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
   <si>
     <t>比例?</t>
   </si>
@@ -148,17 +148,40 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>1種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -189,7 +212,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -205,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,12 +530,12 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,7 +557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -556,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -567,7 +590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -578,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -589,7 +612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -601,6 +624,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -609,16 +633,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7253D7D1-E413-4D14-98A4-C2CEA05B8749}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -640,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -651,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -662,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -673,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -685,6 +709,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -697,12 +722,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -724,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -735,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -746,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -757,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -768,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,6 +805,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -792,12 +818,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,7 +867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,7 +889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,6 +901,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -887,12 +914,12 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -914,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,7 +952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,6 +997,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -982,12 +1010,12 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,6 +1093,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1077,12 +1106,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1115,6 +1144,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1127,12 +1157,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1205,6 +1235,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1217,12 +1248,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1263,6 +1294,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1271,16 +1303,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8425B161-56BD-4E27-9BF5-3E093C333A41}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,39 +1328,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Working_time.xlsx
+++ b/Working_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\高達工作室\Time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BDE9B-41C2-4AD6-BA20-EE96B80C61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DEB12D-48F7-42E2-BBC4-828A0872CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{D33BB735-785D-414E-9181-E53757CEF9BA}"/>
   </bookViews>
@@ -135,18 +135,6 @@
     <t>&gt;3款</t>
   </si>
   <si>
-    <t>1塊</t>
-  </si>
-  <si>
-    <t>2塊</t>
-  </si>
-  <si>
-    <t>3塊</t>
-  </si>
-  <si>
-    <t>&gt;3塊</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -163,6 +151,22 @@
   </si>
   <si>
     <t>&gt;3種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +638,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,7 +659,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -666,10 +670,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -677,10 +681,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -688,10 +692,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -699,10 +703,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1304,7 +1308,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L29" sqref="L27:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Working_time.xlsx
+++ b/Working_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\高達工作室\Time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DEB12D-48F7-42E2-BBC4-828A0872CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF43589D-557F-44A0-81FE-6E217F0AED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{D33BB735-785D-414E-9181-E53757CEF9BA}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{D33BB735-785D-414E-9181-E53757CEF9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="比例" sheetId="1" r:id="rId1"/>
@@ -155,19 +155,15 @@
   </si>
   <si>
     <t>1塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&gt;3塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,7 +634,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,7 +669,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -684,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -695,7 +691,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -706,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -715,6 +711,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1248,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB636897-B827-4361-AF51-A875D6F6AC4F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1307,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8425B161-56BD-4E27-9BF5-3E093C333A41}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L27:L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1358,7 +1355,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>10</v>
